--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0514</v>
+        <v>0.008725</v>
       </c>
       <c r="E2">
-        <v>0.03095</v>
+        <v>-0.0459</v>
       </c>
       <c r="F2">
-        <v>0.00042</v>
+        <v>0.05435</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.008496958429451326</v>
+        <v>1.249604769928682e-05</v>
       </c>
       <c r="J2">
-        <v>0.007333606937165219</v>
+        <v>1.07858846640895e-05</v>
       </c>
       <c r="K2">
-        <v>8630.299999999999</v>
+        <v>7809</v>
       </c>
       <c r="L2">
-        <v>0.564060835408456</v>
+        <v>0.5292801952013013</v>
       </c>
       <c r="M2">
-        <v>6472.3</v>
+        <v>3691.3</v>
       </c>
       <c r="N2">
-        <v>0.07394759241592451</v>
+        <v>0.04937123994532289</v>
       </c>
       <c r="O2">
-        <v>0.7499507548984393</v>
+        <v>0.4726981687796133</v>
       </c>
       <c r="P2">
-        <v>5493</v>
+        <v>3387.7</v>
       </c>
       <c r="Q2">
-        <v>0.06275885313422945</v>
+        <v>0.04531058151945665</v>
       </c>
       <c r="R2">
-        <v>0.6364784538196818</v>
+        <v>0.4338199513381995</v>
       </c>
       <c r="S2">
-        <v>979.3</v>
+        <v>303.6</v>
       </c>
       <c r="T2">
-        <v>0.1513063362328693</v>
+        <v>0.08224744669899493</v>
       </c>
       <c r="U2">
-        <v>50081.5</v>
+        <v>58686.4</v>
       </c>
       <c r="V2">
-        <v>0.5721932465395799</v>
+        <v>0.7849322287343746</v>
       </c>
       <c r="W2">
-        <v>0.09964589207737876</v>
+        <v>0.070630868034638</v>
       </c>
       <c r="X2">
-        <v>0.0524443485770367</v>
+        <v>0.04817607143282353</v>
       </c>
       <c r="Y2">
-        <v>0.04720154350034206</v>
+        <v>0.02245479660181447</v>
       </c>
       <c r="Z2">
-        <v>0.4298559147875284</v>
+        <v>0.2926216378263702</v>
       </c>
       <c r="AA2">
-        <v>0.002582338900546513</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04367975594337543</v>
+        <v>0.03784420390835442</v>
       </c>
       <c r="AC2">
-        <v>-0.04077099241118101</v>
+        <v>-0.03784420390835442</v>
       </c>
       <c r="AD2">
-        <v>18366.3</v>
+        <v>19969</v>
       </c>
       <c r="AE2">
-        <v>742.9699347093294</v>
+        <v>0.2281665612236116</v>
       </c>
       <c r="AF2">
-        <v>19109.26993470933</v>
+        <v>19969.22816656122</v>
       </c>
       <c r="AG2">
-        <v>-30972.23006529067</v>
+        <v>-38717.17183343878</v>
       </c>
       <c r="AH2">
-        <v>0.1792029930426034</v>
+        <v>0.2107894433268605</v>
       </c>
       <c r="AI2">
-        <v>0.1847877953275066</v>
+        <v>0.1849445650142841</v>
       </c>
       <c r="AJ2">
-        <v>-0.5476647080009355</v>
+        <v>-1.074014302259402</v>
       </c>
       <c r="AK2">
-        <v>-0.5807604940141895</v>
+        <v>-0.7855337073479899</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>65.92354630294328</v>
+        <v>86821.73913043478</v>
       </c>
       <c r="AP2">
-        <v>-111.170962186973</v>
+        <v>-168335.5297106034</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOC Hong Kong (Holdings) Limited (SEHK:2388)</t>
+          <t>Hang Seng Bank Limited (SEHK:11)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0556</v>
+        <v>-0.0241</v>
       </c>
       <c r="E3">
-        <v>0.0701</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
+        <v>-0.0532</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,34 +734,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006932107725576118</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005810111470285072</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4146.4</v>
+        <v>2622.7</v>
       </c>
       <c r="L3">
-        <v>0.5967331078650068</v>
+        <v>0.6107113750145534</v>
       </c>
       <c r="M3">
-        <v>3102</v>
+        <v>1999</v>
       </c>
       <c r="N3">
-        <v>0.08448402647275104</v>
+        <v>0.06063418688311768</v>
       </c>
       <c r="O3">
-        <v>0.7481188500868223</v>
+        <v>0.7621916345750563</v>
       </c>
       <c r="P3">
-        <v>3102</v>
+        <v>1999</v>
       </c>
       <c r="Q3">
-        <v>0.08448402647275104</v>
+        <v>0.06063418688311768</v>
       </c>
       <c r="R3">
-        <v>0.7481188500868223</v>
+        <v>0.7621916345750563</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +770,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>25496.8</v>
+        <v>12631.6</v>
       </c>
       <c r="V3">
-        <v>0.6944140316474657</v>
+        <v>0.3831449700013953</v>
       </c>
       <c r="W3">
-        <v>0.1311616460369026</v>
+        <v>0.1186071226681741</v>
       </c>
       <c r="X3">
-        <v>0.04542331764416636</v>
+        <v>0.03808546457284634</v>
       </c>
       <c r="Y3">
-        <v>0.08573832839273628</v>
+        <v>0.08052165809532776</v>
       </c>
       <c r="Z3">
-        <v>0.6682045904049039</v>
+        <v>0.231369739025494</v>
       </c>
       <c r="AA3">
-        <v>0.00388234315520867</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04266503375442871</v>
+        <v>0.03563832963014231</v>
       </c>
       <c r="AC3">
-        <v>-0.03878269059922004</v>
+        <v>-0.03563832963014231</v>
       </c>
       <c r="AD3">
-        <v>6301</v>
+        <v>5211.7</v>
       </c>
       <c r="AE3">
-        <v>168.6612473441717</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6469.661247344172</v>
+        <v>5211.7</v>
       </c>
       <c r="AG3">
-        <v>-19027.13875265583</v>
+        <v>-7419.900000000001</v>
       </c>
       <c r="AH3">
-        <v>0.1498069325222967</v>
+        <v>0.1365037624509231</v>
       </c>
       <c r="AI3">
-        <v>0.1454645523639073</v>
+        <v>0.1865659085946254</v>
       </c>
       <c r="AJ3">
-        <v>-1.075595703471808</v>
+        <v>-0.2904263688777727</v>
       </c>
       <c r="AK3">
-        <v>-1.002533186688482</v>
+        <v>-0.4848562074846602</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>76.93528693528692</v>
-      </c>
-      <c r="AP3">
-        <v>-232.3215964915241</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Bank of East Asia, Limited (SEHK:23)</t>
+          <t>BOC Hong Kong (Holdings) Limited (SEHK:2388)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +844,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0672</v>
+        <v>0.0852</v>
       </c>
       <c r="E4">
-        <v>-0.124</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="F4">
-        <v>-0.0116</v>
+        <v>-0.0293</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,34 +859,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01829769405488945</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01669865375240709</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>450.3</v>
+        <v>4067.2</v>
       </c>
       <c r="L4">
-        <v>0.2811212386065676</v>
+        <v>0.5688391608391609</v>
       </c>
       <c r="M4">
-        <v>203.3</v>
+        <v>922</v>
       </c>
       <c r="N4">
-        <v>0.03131208896144901</v>
+        <v>0.02877141082890996</v>
       </c>
       <c r="O4">
-        <v>0.4514767932489452</v>
+        <v>0.2266915814319434</v>
       </c>
       <c r="P4">
-        <v>203.3</v>
+        <v>922</v>
       </c>
       <c r="Q4">
-        <v>0.03131208896144901</v>
+        <v>0.02877141082890996</v>
       </c>
       <c r="R4">
-        <v>0.4514767932489452</v>
+        <v>0.2266915814319434</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,67 +895,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>12346.8</v>
+        <v>26819.3</v>
       </c>
       <c r="V4">
-        <v>1.901643384108306</v>
+        <v>0.83690791588263</v>
       </c>
       <c r="W4">
-        <v>0.03508320867614061</v>
+        <v>0.108868593209632</v>
       </c>
       <c r="X4">
-        <v>0.05241451055074968</v>
+        <v>0.03941424029999772</v>
       </c>
       <c r="Y4">
-        <v>-0.01733130187460907</v>
+        <v>0.06945435290963428</v>
       </c>
       <c r="Z4">
-        <v>0.33407346391494</v>
+        <v>0.3936574354456862</v>
       </c>
       <c r="AA4">
-        <v>0.005578577101782846</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04441076893037685</v>
+        <v>0.0359936505297057</v>
       </c>
       <c r="AC4">
-        <v>-0.038832191828594</v>
+        <v>-0.0359936505297057</v>
       </c>
       <c r="AD4">
-        <v>3396.1</v>
+        <v>7071.3</v>
       </c>
       <c r="AE4">
-        <v>125.9537683143904</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3522.05376831439</v>
+        <v>7071.3</v>
       </c>
       <c r="AG4">
-        <v>-8824.746231685609</v>
+        <v>-19748</v>
       </c>
       <c r="AH4">
-        <v>0.3516865067075131</v>
+        <v>0.1807730654191272</v>
       </c>
       <c r="AI4">
-        <v>0.2076308792284383</v>
+        <v>0.1490059317480219</v>
       </c>
       <c r="AJ4">
-        <v>3.784121477431886</v>
+        <v>-1.605828732201956</v>
       </c>
       <c r="AK4">
-        <v>-1.911668351566369</v>
+        <v>-0.9569127594828757</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>62.3137614678899</v>
-      </c>
-      <c r="AP4">
-        <v>-161.9219492052405</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hang Seng Bank Limited (SEHK:11)</t>
+          <t>Dah Sing Banking Group Limited (SEHK:2356)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,13 +969,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0788</v>
+        <v>0.0142</v>
       </c>
       <c r="E5">
-        <v>0.0862</v>
-      </c>
-      <c r="F5">
-        <v>0.00042</v>
+        <v>-0.0386</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,103 +981,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.009294505235388065</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00794908254164701</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3228.8</v>
+        <v>236.3</v>
       </c>
       <c r="L5">
-        <v>0.6463675855303986</v>
+        <v>0.4256123919308357</v>
       </c>
       <c r="M5">
-        <v>2847</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="N5">
-        <v>0.07204403112545076</v>
+        <v>0.06402439024390244</v>
       </c>
       <c r="O5">
-        <v>0.8817517343904856</v>
+        <v>0.3910283537875582</v>
       </c>
       <c r="P5">
-        <v>1943.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.04917821218447523</v>
+        <v>0.06402439024390244</v>
       </c>
       <c r="R5">
-        <v>0.6018954410307235</v>
+        <v>0.3910283537875582</v>
       </c>
       <c r="S5">
-        <v>903.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.3173867228661749</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>8576.299999999999</v>
+        <v>3297.3</v>
       </c>
       <c r="V5">
-        <v>0.2170253685076232</v>
+        <v>2.284714523281596</v>
       </c>
       <c r="W5">
-        <v>0.1627796767395666</v>
+        <v>0.06690828779341394</v>
       </c>
       <c r="X5">
-        <v>0.04457335154440233</v>
+        <v>0.04814081399830369</v>
       </c>
       <c r="Y5">
-        <v>0.1182063251951643</v>
+        <v>0.01876747379511025</v>
       </c>
       <c r="Z5">
-        <v>0.4463773576820416</v>
+        <v>0.2382423618262959</v>
       </c>
       <c r="AA5">
-        <v>0.00354829046093684</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04251048001382399</v>
+        <v>0.03743737888972589</v>
       </c>
       <c r="AC5">
-        <v>-0.03896218955288715</v>
+        <v>-0.03743737888972589</v>
       </c>
       <c r="AD5">
-        <v>5067.1</v>
+        <v>911.6</v>
       </c>
       <c r="AE5">
-        <v>136.35578998833</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5203.45578998833</v>
+        <v>911.6</v>
       </c>
       <c r="AG5">
-        <v>-3372.844210011669</v>
+        <v>-2385.7</v>
       </c>
       <c r="AH5">
-        <v>0.1163538591264462</v>
+        <v>0.3871241719041957</v>
       </c>
       <c r="AI5">
-        <v>0.1903868942590885</v>
+        <v>0.2012806359019651</v>
       </c>
       <c r="AJ5">
-        <v>-0.09331515645380442</v>
+        <v>2.531246684350132</v>
       </c>
       <c r="AK5">
-        <v>-0.179840368587952</v>
+        <v>-1.936916456929448</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>68.75305291723203</v>
-      </c>
-      <c r="AP5">
-        <v>-45.76450759853011</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chong Hing Bank Limited (SEHK:1111)</t>
+          <t>Dah Sing Financial Holdings Limited (SEHK:440)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,10 +1091,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00247</v>
+        <v>0.00325</v>
       </c>
       <c r="E6">
-        <v>-0.0711</v>
+        <v>-0.0562</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1127,34 +1103,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01500394155764254</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01257834955899292</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>231.8</v>
+        <v>172.7</v>
       </c>
       <c r="L6">
-        <v>0.5026019080659151</v>
+        <v>0.299047619047619</v>
       </c>
       <c r="M6">
-        <v>91.7</v>
+        <v>60.6</v>
       </c>
       <c r="N6">
-        <v>0.05530426391653098</v>
+        <v>0.06728847435043304</v>
       </c>
       <c r="O6">
-        <v>0.3955996548748921</v>
+        <v>0.3508975101331789</v>
       </c>
       <c r="P6">
-        <v>91.7</v>
+        <v>60.6</v>
       </c>
       <c r="Q6">
-        <v>0.05530426391653098</v>
+        <v>0.06728847435043304</v>
       </c>
       <c r="R6">
-        <v>0.3955996548748921</v>
+        <v>0.3508975101331789</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1163,67 +1139,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>926.8</v>
+        <v>1612.2</v>
       </c>
       <c r="V6">
-        <v>0.558953018515168</v>
+        <v>1.790139906728847</v>
       </c>
       <c r="W6">
-        <v>0.1025391488985225</v>
+        <v>0.05158303464755077</v>
       </c>
       <c r="X6">
-        <v>0.06348838664683466</v>
+        <v>0.05625434143074226</v>
       </c>
       <c r="Y6">
-        <v>0.03905076225168787</v>
+        <v>-0.004671306783191491</v>
       </c>
       <c r="Z6">
-        <v>0.1285055191521965</v>
+        <v>0.1717114652711703</v>
       </c>
       <c r="AA6">
-        <v>0.001616387340156186</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04419618260963105</v>
+        <v>0.03825102892698295</v>
       </c>
       <c r="AC6">
-        <v>-0.04257979526947487</v>
+        <v>-0.03825102892698295</v>
       </c>
       <c r="AD6">
-        <v>1837.5</v>
+        <v>913</v>
       </c>
       <c r="AE6">
-        <v>23.9009107680763</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1861.400910768076</v>
+        <v>913</v>
       </c>
       <c r="AG6">
-        <v>934.6009107680763</v>
+        <v>-699.2</v>
       </c>
       <c r="AH6">
-        <v>0.5288820653726879</v>
+        <v>0.5034186149095722</v>
       </c>
       <c r="AI6">
-        <v>0.3853033657309193</v>
+        <v>0.1734257764270111</v>
       </c>
       <c r="AJ6">
-        <v>0.3604738621745633</v>
+        <v>-3.471698113207548</v>
       </c>
       <c r="AK6">
-        <v>0.2393834057541398</v>
+        <v>-0.1914410097746626</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>157.0512820512821</v>
-      </c>
-      <c r="AP6">
-        <v>79.88041972376722</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dah Sing Banking Group Limited (SEHK:2356)</t>
+          <t>The Bank of East Asia, Limited (SEHK:23)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1243,10 +1213,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.06759999999999999</v>
+        <v>-0.0377</v>
       </c>
       <c r="E7">
-        <v>0.0453</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F7">
+        <v>0.138</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1255,34 +1228,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.0001385952932007206</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.000119887563510129</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>318.5</v>
+        <v>489.3</v>
       </c>
       <c r="L7">
-        <v>0.5055555555555555</v>
+        <v>0.2882644043831742</v>
       </c>
       <c r="M7">
-        <v>91.7</v>
+        <v>219.6</v>
       </c>
       <c r="N7">
-        <v>0.0487610337126449</v>
+        <v>0.0352521912222686</v>
       </c>
       <c r="O7">
-        <v>0.2879120879120879</v>
+        <v>0.4488044144696505</v>
       </c>
       <c r="P7">
-        <v>91.7</v>
+        <v>219.6</v>
       </c>
       <c r="Q7">
-        <v>0.0487610337126449</v>
+        <v>0.0352521912222686</v>
       </c>
       <c r="R7">
-        <v>0.2879120879120879</v>
+        <v>0.4488044144696505</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1291,67 +1264,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1979</v>
+        <v>11898.3</v>
       </c>
       <c r="V7">
-        <v>1.052323726470275</v>
+        <v>1.910023437249173</v>
       </c>
       <c r="W7">
-        <v>0.096752635256235</v>
+        <v>0.03741540814375836</v>
       </c>
       <c r="X7">
-        <v>0.05247418660332372</v>
+        <v>0.04821132886734338</v>
       </c>
       <c r="Y7">
-        <v>0.04427844865291128</v>
+        <v>-0.01079592072358501</v>
       </c>
       <c r="Z7">
-        <v>0.2687671372846846</v>
+        <v>0.4113114277406223</v>
       </c>
       <c r="AA7">
-        <v>-3.222183724065319e-05</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04348575654382338</v>
+        <v>0.0385594978466537</v>
       </c>
       <c r="AC7">
-        <v>-0.04351797838106403</v>
+        <v>-0.0385594978466537</v>
       </c>
       <c r="AD7">
-        <v>881.6</v>
+        <v>3955.5</v>
       </c>
       <c r="AE7">
-        <v>144.4365751735823</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1026.036575173582</v>
+        <v>3955.5</v>
       </c>
       <c r="AG7">
-        <v>-952.9634248264176</v>
+        <v>-7942.799999999999</v>
       </c>
       <c r="AH7">
-        <v>0.3529978890162105</v>
+        <v>0.3883690561517541</v>
       </c>
       <c r="AI7">
-        <v>0.2250210200212109</v>
+        <v>0.2227083087005726</v>
       </c>
       <c r="AJ7">
-        <v>-1.027302556120209</v>
+        <v>4.635695109139723</v>
       </c>
       <c r="AK7">
-        <v>-0.369260246858911</v>
+        <v>-1.354825504042575</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>30.61111111111111</v>
-      </c>
-      <c r="AP7">
-        <v>-33.08900780647284</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1329,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dah Sing Financial Holdings Limited (SEHK:440)</t>
+          <t>Chong Hing Bank Limited (SEHK:1111)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,10 +1338,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0472</v>
+        <v>0.104</v>
       </c>
       <c r="E8">
-        <v>0.0166</v>
+        <v>0.0863</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1383,91 +1350,91 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.001103735680717034</v>
+        <v>0.0003845779886426318</v>
       </c>
       <c r="J8">
-        <v>-0.0009593243284270889</v>
+        <v>0.0003211604383218347</v>
       </c>
       <c r="K8">
-        <v>254.5</v>
+        <v>220.8</v>
       </c>
       <c r="L8">
-        <v>0.3835719668425019</v>
+        <v>0.460575719649562</v>
       </c>
       <c r="M8">
-        <v>136.6</v>
+        <v>397.7</v>
       </c>
       <c r="N8">
-        <v>0.1084471260717688</v>
+        <v>0.3372911542702062</v>
       </c>
       <c r="O8">
-        <v>0.5367387033398821</v>
+        <v>1.801177536231884</v>
       </c>
       <c r="P8">
-        <v>60.9</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="Q8">
-        <v>0.04834868212130836</v>
+        <v>0.07980663217708422</v>
       </c>
       <c r="R8">
-        <v>0.2392927308447937</v>
+        <v>0.426177536231884</v>
       </c>
       <c r="S8">
-        <v>75.69999999999999</v>
+        <v>303.6</v>
       </c>
       <c r="T8">
-        <v>0.5541727672035138</v>
+        <v>0.7633894895649987</v>
       </c>
       <c r="U8">
-        <v>755.8</v>
+        <v>2427.7</v>
       </c>
       <c r="V8">
-        <v>0.6000317561130518</v>
+        <v>2.058943261809855</v>
       </c>
       <c r="W8">
-        <v>0.07976806143237737</v>
+        <v>0.07435344827586207</v>
       </c>
       <c r="X8">
-        <v>0.05761802563466825</v>
+        <v>0.06905424067567952</v>
       </c>
       <c r="Y8">
-        <v>0.02215003579770912</v>
+        <v>0.005299207600182557</v>
       </c>
       <c r="Z8">
-        <v>0.2024865010834552</v>
+        <v>0.1237015029955495</v>
       </c>
       <c r="AA8">
-        <v>-0.0001942502266674366</v>
+        <v>3.972802892312043e-05</v>
       </c>
       <c r="AB8">
-        <v>0.04387375534292749</v>
+        <v>0.0390514625983992</v>
       </c>
       <c r="AC8">
-        <v>-0.04406800556959493</v>
+        <v>-0.03901173456947608</v>
       </c>
       <c r="AD8">
-        <v>883</v>
+        <v>1905.9</v>
       </c>
       <c r="AE8">
-        <v>143.6616431207788</v>
+        <v>0.2281665612236116</v>
       </c>
       <c r="AF8">
-        <v>1026.661643120779</v>
+        <v>1906.128166561224</v>
       </c>
       <c r="AG8">
-        <v>270.8616431207788</v>
+        <v>-521.5718334387761</v>
       </c>
       <c r="AH8">
-        <v>0.4490569337109516</v>
+        <v>0.6178240517899143</v>
       </c>
       <c r="AI8">
-        <v>0.1955038926838515</v>
+        <v>0.3790779168386673</v>
       </c>
       <c r="AJ8">
-        <v>0.1769803538287064</v>
+        <v>-0.7932311647826749</v>
       </c>
       <c r="AK8">
-        <v>0.06025090180561936</v>
+        <v>-0.2005560964635878</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1476,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>31.53571428571428</v>
+        <v>8286.521739130434</v>
       </c>
       <c r="AP8">
-        <v>9.673630111456387</v>
+        <v>-2267.703623646853</v>
       </c>
     </row>
   </sheetData>
